--- a/medicine/Psychotrope/Super_Bock_Super_Rock/Super_Bock_Super_Rock.xlsx
+++ b/medicine/Psychotrope/Super_Bock_Super_Rock/Super_Bock_Super_Rock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Super Bock Super Rock est un festival de rock, metal et quelques nouvelles tendances comme la musique électronique qui se déroule tous les étés à Lisbonne dans le Parque do Tejo (faisant partie du Parque das Nações) au nord de la ville.
 Il a été fondé en 1994, mais le premier festival s'est déroulé en 1995.
@@ -517,9 +529,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Années 1990
-1995
-Les 8 et 9 juillet :
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 8 et 9 juillet :
 Jesus and Mary Chain,
 GNR,
 The Young Gods,
@@ -531,8 +551,47 @@
 Morphine,
 Youssou N'Dour,
 Therapy.
-1996
-Les 21 et 23 juin :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Super_Bock_Super_Rock</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Super_Bock_Super_Rock</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique du festival</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 21 et 23 juin :
 Paradise Lost,
 Moonspell,
 Fields of the Nephilim,
@@ -551,44 +610,93 @@
 Neneh Cherry,
 The Popes,
 Echobelly.
-1997
-1998
-1999
-Années 2000
-2000
-2001
-2002
-2003
-2004
-2005
-2006
-2007
-2008
-Depuis 2008, le festival se déroule à Lisbonne et à Porto.
-2009
-11 juillet au Estadio do Bessa XXI de Porto :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Super_Bock_Super_Rock</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Super_Bock_Super_Rock</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique du festival</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2008, le festival se déroule à Lisbonne et à Porto.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Super_Bock_Super_Rock</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Super_Bock_Super_Rock</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique du festival</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11 juillet au Estadio do Bessa XXI de Porto :
 Depeche Mode,
 Nouvelle Vague.
 18 juillet au Estadio do Restelo de Lisbonne :
 The Killers,
-Duffy.
-Années 2010
-2010
-2011
-2012
-2013
-2014
-2015
-2016
-2017
-2018
-2019
-Années 2020
-2020
-2021
-2022
-2023
-2024</t>
+Duffy.</t>
         </is>
       </c>
     </row>
